--- a/parts lists.xlsx
+++ b/parts lists.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdzajicek\Desktop\$3D Print Manual for KCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdzajicek\Desktop\3DPRINTMANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="198">
   <si>
     <t>ITEM</t>
   </si>
@@ -615,6 +615,12 @@
   </si>
   <si>
     <t>2GT 20 Tooth Stepper Pulley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Stage Assembly </t>
+  </si>
+  <si>
+    <t>Y Limit Switch</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A478" sqref="A478:D486"/>
+      <selection activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,53 +6685,111 @@
         <v>14</v>
       </c>
     </row>
+    <row r="488" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A488" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" s="8"/>
+      <c r="C488" s="8"/>
+      <c r="D488" s="8"/>
+    </row>
+    <row r="489" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>1</v>
+      </c>
+      <c r="B490" s="3">
+        <v>1</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D490" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>2</v>
+      </c>
+      <c r="B491" s="3">
+        <v>1</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>3</v>
+      </c>
+      <c r="B492" s="3">
+        <v>1</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D492" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>4</v>
+      </c>
+      <c r="B493" s="3">
+        <v>1</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>5</v>
+      </c>
+      <c r="B494" s="3">
+        <v>1</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D494" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="4"/>
+      <c r="B495" s="4"/>
+      <c r="C495" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A448:D448"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="A464:D464"/>
-    <mergeCell ref="A474:D474"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A408:D408"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A426:D426"/>
-    <mergeCell ref="A438:D438"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A375:D375"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A360:D360"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A120:D120"/>
+  <mergeCells count="62">
+    <mergeCell ref="A488:D488"/>
     <mergeCell ref="A129:D129"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A145:D145"/>
@@ -6742,6 +6806,51 @@
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D204"/>
     <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A375:D375"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A360:D360"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A408:D408"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A426:D426"/>
+    <mergeCell ref="A438:D438"/>
+    <mergeCell ref="A448:D448"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="A464:D464"/>
+    <mergeCell ref="A474:D474"/>
+    <mergeCell ref="A478:D478"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/parts lists.xlsx
+++ b/parts lists.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="199">
   <si>
     <t>ITEM</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t>Y Limit Switch</t>
+  </si>
+  <si>
+    <t>Adjustable Z Limit Switch</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="D504" sqref="A497:D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,8 +6790,157 @@
         <v>14</v>
       </c>
     </row>
+    <row r="497" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A497" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497" s="8"/>
+      <c r="C497" s="8"/>
+      <c r="D497" s="8"/>
+    </row>
+    <row r="498" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>1</v>
+      </c>
+      <c r="B499" s="3">
+        <v>1</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>2</v>
+      </c>
+      <c r="B500" s="3">
+        <v>1</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D500" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>3</v>
+      </c>
+      <c r="B501" s="3">
+        <v>1</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>4</v>
+      </c>
+      <c r="B502" s="3">
+        <v>1</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D502" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>5</v>
+      </c>
+      <c r="B503" s="3">
+        <v>1</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="4"/>
+      <c r="B504" s="4"/>
+      <c r="C504" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D504" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
+    <mergeCell ref="A497:D497"/>
+    <mergeCell ref="A448:D448"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="A464:D464"/>
+    <mergeCell ref="A474:D474"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A408:D408"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A426:D426"/>
+    <mergeCell ref="A438:D438"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A375:D375"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A360:D360"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A120:D120"/>
     <mergeCell ref="A488:D488"/>
     <mergeCell ref="A129:D129"/>
     <mergeCell ref="A137:D137"/>
@@ -6805,52 +6957,6 @@
     <mergeCell ref="A189:D189"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A375:D375"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A360:D360"/>
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A408:D408"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A426:D426"/>
-    <mergeCell ref="A438:D438"/>
-    <mergeCell ref="A448:D448"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="A464:D464"/>
-    <mergeCell ref="A474:D474"/>
-    <mergeCell ref="A478:D478"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/parts lists.xlsx
+++ b/parts lists.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="203">
   <si>
     <t>ITEM</t>
   </si>
@@ -624,6 +624,18 @@
   </si>
   <si>
     <t>Adjustable Z Limit Switch</t>
+  </si>
+  <si>
+    <t>ledPostSwitch</t>
+  </si>
+  <si>
+    <t>ledPost</t>
+  </si>
+  <si>
+    <t>ledCover</t>
+  </si>
+  <si>
+    <t>ledShade</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="D504" sqref="A497:D504"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A506" sqref="A506:D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6892,59 +6904,87 @@
         <v>14</v>
       </c>
     </row>
+    <row r="506" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A506" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B506" s="8"/>
+      <c r="C506" s="8"/>
+      <c r="D506" s="8"/>
+    </row>
+    <row r="507" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="4">
+        <v>1</v>
+      </c>
+      <c r="B508" s="4">
+        <v>1</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D508" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="4">
+        <v>2</v>
+      </c>
+      <c r="B509" s="4">
+        <v>1</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D509" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="4">
+        <v>3</v>
+      </c>
+      <c r="B510" s="4">
+        <v>2</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="4">
+        <v>4</v>
+      </c>
+      <c r="B511" s="4">
+        <v>2</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A497:D497"/>
-    <mergeCell ref="A448:D448"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="A464:D464"/>
-    <mergeCell ref="A474:D474"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A408:D408"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A426:D426"/>
-    <mergeCell ref="A438:D438"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A375:D375"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A360:D360"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A488:D488"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
+  <mergeCells count="64">
+    <mergeCell ref="A506:D506"/>
     <mergeCell ref="A380:D380"/>
     <mergeCell ref="A389:D389"/>
     <mergeCell ref="A151:D151"/>
@@ -6957,6 +6997,57 @@
     <mergeCell ref="A189:D189"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="A249:D249"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A375:D375"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A360:D360"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A408:D408"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A426:D426"/>
+    <mergeCell ref="A438:D438"/>
+    <mergeCell ref="A497:D497"/>
+    <mergeCell ref="A448:D448"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="A464:D464"/>
+    <mergeCell ref="A474:D474"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A488:D488"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/parts lists.xlsx
+++ b/parts lists.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="211">
   <si>
     <t>ITEM</t>
   </si>
@@ -636,6 +636,30 @@
   </si>
   <si>
     <t>ledShade</t>
+  </si>
+  <si>
+    <t>Step3</t>
+  </si>
+  <si>
+    <t>LEDpostAssy</t>
+  </si>
+  <si>
+    <t>LEDpostSwitchAssy</t>
+  </si>
+  <si>
+    <t>LCDpanelBoxBack</t>
+  </si>
+  <si>
+    <t>LCDscreenSubAssembly</t>
+  </si>
+  <si>
+    <t>M3 x 40</t>
+  </si>
+  <si>
+    <t>Previous sub-assebmly</t>
+  </si>
+  <si>
+    <t>ElectronicsTraySubAssembly</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D511"/>
+  <dimension ref="A1:D544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A506" sqref="A506:D511"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="D544" sqref="A538:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6927,10 +6951,10 @@
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="4">
-        <v>1</v>
-      </c>
-      <c r="B508" s="4">
+      <c r="A508" s="3">
+        <v>1</v>
+      </c>
+      <c r="B508" s="3">
         <v>1</v>
       </c>
       <c r="C508" s="4" t="s">
@@ -6941,10 +6965,10 @@
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="4">
-        <v>2</v>
-      </c>
-      <c r="B509" s="4">
+      <c r="A509" s="3">
+        <v>2</v>
+      </c>
+      <c r="B509" s="3">
         <v>1</v>
       </c>
       <c r="C509" s="4" t="s">
@@ -6955,10 +6979,10 @@
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510" s="4">
-        <v>3</v>
-      </c>
-      <c r="B510" s="4">
+      <c r="A510" s="3">
+        <v>3</v>
+      </c>
+      <c r="B510" s="3">
         <v>2</v>
       </c>
       <c r="C510" s="4" t="s">
@@ -6969,10 +6993,10 @@
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="4">
-        <v>4</v>
-      </c>
-      <c r="B511" s="4">
+      <c r="A511" s="3">
+        <v>4</v>
+      </c>
+      <c r="B511" s="3">
         <v>2</v>
       </c>
       <c r="C511" s="4" t="s">
@@ -6982,8 +7006,426 @@
         <v>150</v>
       </c>
     </row>
+    <row r="513" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A513" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B513" s="8"/>
+      <c r="C513" s="8"/>
+      <c r="D513" s="8"/>
+    </row>
+    <row r="514" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>1</v>
+      </c>
+      <c r="B515" s="3">
+        <v>1</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>2</v>
+      </c>
+      <c r="B516" s="3">
+        <v>1</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>3</v>
+      </c>
+      <c r="B517" s="3">
+        <v>1</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D517" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>4</v>
+      </c>
+      <c r="B518" s="3">
+        <v>2</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D518" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>5</v>
+      </c>
+      <c r="B519" s="3">
+        <v>2</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>6</v>
+      </c>
+      <c r="B520" s="3">
+        <v>2</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="3"/>
+      <c r="B521" s="3"/>
+      <c r="C521" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A523" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B523" s="8"/>
+      <c r="C523" s="8"/>
+      <c r="D523" s="8"/>
+    </row>
+    <row r="524" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>1</v>
+      </c>
+      <c r="B525" s="3">
+        <v>1</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>2</v>
+      </c>
+      <c r="B526" s="3">
+        <v>1</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>3</v>
+      </c>
+      <c r="B527" s="3">
+        <v>2</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>4</v>
+      </c>
+      <c r="B528" s="3">
+        <v>2</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D528" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="3"/>
+      <c r="B529" s="3"/>
+      <c r="C529" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A531" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B531" s="8"/>
+      <c r="C531" s="8"/>
+      <c r="D531" s="8"/>
+    </row>
+    <row r="532" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>1</v>
+      </c>
+      <c r="B533" s="3">
+        <v>1</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>2</v>
+      </c>
+      <c r="B534" s="3">
+        <v>1</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>3</v>
+      </c>
+      <c r="B535" s="3">
+        <v>4</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="4"/>
+      <c r="B536" s="4"/>
+      <c r="C536" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A538" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B538" s="8"/>
+      <c r="C538" s="8"/>
+      <c r="D538" s="8"/>
+    </row>
+    <row r="539" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>1</v>
+      </c>
+      <c r="B540" s="3">
+        <v>1</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>2</v>
+      </c>
+      <c r="B541" s="3">
+        <v>1</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>3</v>
+      </c>
+      <c r="B542" s="3">
+        <v>4</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>4</v>
+      </c>
+      <c r="B543" s="3">
+        <v>4</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="4"/>
+      <c r="B544" s="4"/>
+      <c r="C544" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="68">
+    <mergeCell ref="A513:D513"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A497:D497"/>
+    <mergeCell ref="A448:D448"/>
+    <mergeCell ref="A454:D454"/>
+    <mergeCell ref="A464:D464"/>
+    <mergeCell ref="A474:D474"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A488:D488"/>
+    <mergeCell ref="A398:D398"/>
+    <mergeCell ref="A408:D408"/>
+    <mergeCell ref="A416:D416"/>
+    <mergeCell ref="A426:D426"/>
+    <mergeCell ref="A438:D438"/>
+    <mergeCell ref="A365:D365"/>
+    <mergeCell ref="A375:D375"/>
+    <mergeCell ref="A318:D318"/>
+    <mergeCell ref="A325:D325"/>
+    <mergeCell ref="A332:D332"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A350:D350"/>
+    <mergeCell ref="A360:D360"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A274:D274"/>
+    <mergeCell ref="A312:D312"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A289:D289"/>
+    <mergeCell ref="A299:D299"/>
+    <mergeCell ref="A306:D306"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A120:D120"/>
     <mergeCell ref="A506:D506"/>
     <mergeCell ref="A380:D380"/>
     <mergeCell ref="A389:D389"/>
@@ -6998,56 +7440,8 @@
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A204:D204"/>
     <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A220:D220"/>
     <mergeCell ref="A249:D249"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A312:D312"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="A289:D289"/>
-    <mergeCell ref="A299:D299"/>
-    <mergeCell ref="A306:D306"/>
-    <mergeCell ref="A365:D365"/>
-    <mergeCell ref="A375:D375"/>
-    <mergeCell ref="A318:D318"/>
-    <mergeCell ref="A325:D325"/>
-    <mergeCell ref="A332:D332"/>
-    <mergeCell ref="A341:D341"/>
-    <mergeCell ref="A350:D350"/>
-    <mergeCell ref="A360:D360"/>
-    <mergeCell ref="A398:D398"/>
-    <mergeCell ref="A408:D408"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="A426:D426"/>
-    <mergeCell ref="A438:D438"/>
-    <mergeCell ref="A497:D497"/>
-    <mergeCell ref="A448:D448"/>
-    <mergeCell ref="A454:D454"/>
-    <mergeCell ref="A464:D464"/>
-    <mergeCell ref="A474:D474"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A488:D488"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
